--- a/mdsap/merged/MDSAP-AU-P0002.007-MDSAP-Audit-Approach.final_mapping.xlsx
+++ b/mdsap/merged/MDSAP-AU-P0002.007-MDSAP-Audit-Approach.final_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastianh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75BC6CD0-762F-49F8-9926-814094EACE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D30587C-BAB5-42EE-85EF-8BD2C630F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{753A572E-5329-482E-9715-DC27A7B5EEB0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="449">
   <si>
     <t># converted from https://www.fda.gov/media/166672/download?attachment</t>
   </si>
@@ -1364,6 +1364,9 @@
   </si>
   <si>
     <t>MO169: 5-3; 5-5; 11; [Old: 5; 11]</t>
+  </si>
+  <si>
+    <t>ISO 13485:2016: 4.2.1, 7.2.3, 8.2.2, 8.2.3</t>
   </si>
 </sst>
 </file>
@@ -2207,9 +2210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4507918-079E-40CD-8566-2838943DEC94}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2939,10 +2944,10 @@
         <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -2959,25 +2964,28 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2985,22 +2993,22 @@
         <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,22 +3016,22 @@
         <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
         <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3031,22 +3039,22 @@
         <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3054,22 +3062,22 @@
         <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3077,22 +3085,22 @@
         <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3100,22 +3108,22 @@
         <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3123,22 +3131,22 @@
         <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3146,22 +3154,22 @@
         <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3169,19 +3177,19 @@
         <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
         <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
         <v>204</v>
@@ -3192,19 +3200,19 @@
         <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
         <v>204</v>
@@ -3215,22 +3223,22 @@
         <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3238,22 +3246,22 @@
         <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3261,22 +3269,22 @@
         <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G47" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3284,22 +3292,22 @@
         <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3307,45 +3315,45 @@
         <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3353,22 +3361,22 @@
         <v>249</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3376,22 +3384,22 @@
         <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3399,22 +3407,22 @@
         <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F53" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3422,22 +3430,22 @@
         <v>249</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F54" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3445,22 +3453,22 @@
         <v>249</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3468,22 +3476,22 @@
         <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E56" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G56" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3491,22 +3499,22 @@
         <v>249</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3514,22 +3522,22 @@
         <v>249</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G58" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3537,22 +3545,22 @@
         <v>249</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
         <v>299</v>
       </c>
       <c r="E59" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3560,22 +3568,22 @@
         <v>249</v>
       </c>
       <c r="B60" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3583,22 +3591,22 @@
         <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D61" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G61" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3606,22 +3614,22 @@
         <v>249</v>
       </c>
       <c r="B62" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
         <v>315</v>
       </c>
       <c r="E62" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3629,22 +3637,22 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="E63" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G63" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3652,22 +3660,22 @@
         <v>249</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D64" t="s">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F64" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G64" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3675,22 +3683,22 @@
         <v>249</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="E65" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G65" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3698,22 +3706,22 @@
         <v>249</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="F66" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G66" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3721,22 +3729,22 @@
         <v>249</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C67" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G67" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3744,22 +3752,22 @@
         <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="F68" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3767,22 +3775,22 @@
         <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G69" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3790,22 +3798,22 @@
         <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F70" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G70" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3813,22 +3821,22 @@
         <v>249</v>
       </c>
       <c r="B71" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C71" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="E71" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F71" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G71" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3836,22 +3844,22 @@
         <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C72" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D72" t="s">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F72" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G72" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3859,22 +3867,22 @@
         <v>249</v>
       </c>
       <c r="B73" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F73" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G73" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3882,22 +3890,22 @@
         <v>249</v>
       </c>
       <c r="B74" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C74" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F74" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G74" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3905,22 +3913,22 @@
         <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F75" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G75" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3928,22 +3936,22 @@
         <v>249</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C76" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>386</v>
       </c>
       <c r="F76" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G76" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3951,45 +3959,45 @@
         <v>249</v>
       </c>
       <c r="B77" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D78" t="s">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G78" t="s">
-        <v>403</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3997,22 +4005,22 @@
         <v>397</v>
       </c>
       <c r="B79" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E79" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F79" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G79" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4020,16 +4028,16 @@
         <v>397</v>
       </c>
       <c r="B80" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C80" t="s">
         <v>405</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="E80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F80" t="s">
         <v>408</v>
@@ -4043,22 +4051,22 @@
         <v>397</v>
       </c>
       <c r="B81" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C81" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F81" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G81" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4066,19 +4074,19 @@
         <v>397</v>
       </c>
       <c r="B82" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G82" t="s">
         <v>416</v>
@@ -4089,22 +4097,22 @@
         <v>397</v>
       </c>
       <c r="B83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F83" t="s">
         <v>408</v>
       </c>
       <c r="G83" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4112,22 +4120,22 @@
         <v>397</v>
       </c>
       <c r="B84" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C84" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F84" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G84" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4135,22 +4143,22 @@
         <v>397</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G85" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4158,22 +4166,22 @@
         <v>397</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D86" t="s">
-        <v>435</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F86" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G86" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4181,22 +4189,22 @@
         <v>397</v>
       </c>
       <c r="B87" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>435</v>
       </c>
       <c r="E87" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F87" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G87" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4204,21 +4212,44 @@
         <v>397</v>
       </c>
       <c r="B88" t="s">
+        <v>439</v>
+      </c>
+      <c r="C88" t="s">
+        <v>440</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>441</v>
+      </c>
+      <c r="F88" t="s">
+        <v>442</v>
+      </c>
+      <c r="G88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" t="s">
         <v>444</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>445</v>
       </c>
-      <c r="D88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
         <v>446</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>447</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>41</v>
       </c>
     </row>

--- a/mdsap/merged/MDSAP-AU-P0002.007-MDSAP-Audit-Approach.final_mapping.xlsx
+++ b/mdsap/merged/MDSAP-AU-P0002.007-MDSAP-Audit-Approach.final_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastianh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D30587C-BAB5-42EE-85EF-8BD2C630F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E9D3BC1-7831-4578-901C-AE9B590B29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{753A572E-5329-482E-9715-DC27A7B5EEB0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="451">
   <si>
     <t># converted from https://www.fda.gov/media/166672/download?attachment</t>
   </si>
@@ -121,9 +121,6 @@
     <t>21 CFR 820.20(b); 820.25]</t>
   </si>
   <si>
-    <t>Task 5 - Extent of Outsourcing</t>
-  </si>
-  <si>
     <t>ISO 13485:2016: 4.1.5; 4.2.1</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>Task 1 â€“ Identification of devices subject to design and development procedures;</t>
   </si>
   <si>
-    <t>ISO 13485:2016: 4.1.1; 4.2.1; 7.1; 7.3.10</t>
-  </si>
-  <si>
     <t>TG(MD)R Division 3.2</t>
   </si>
   <si>
@@ -913,9 +907,6 @@
     <t>21 CFR 820.75; 820.184(d)]</t>
   </si>
   <si>
-    <t>Task 11 â€“ Control, operation, and monitoring of the production and service process; risk controls</t>
-  </si>
-  <si>
     <t>ISO 13485:2016: 7.1; 7.5.1; 8.1; 8.2.6</t>
   </si>
   <si>
@@ -1027,9 +1018,6 @@
     <t>21 CFR 820.65; 820.181]</t>
   </si>
   <si>
-    <t>Task 16, and the requirements for product release were met and documented.</t>
-  </si>
-  <si>
     <t>ISO: 13485:2016: 4.2.1; 7.5.1; 7.5.8; 7.5.9.1; 8.2.6</t>
   </si>
   <si>
@@ -1367,6 +1355,24 @@
   </si>
   <si>
     <t>ISO 13485:2016: 4.2.1, 7.2.3, 8.2.2, 8.2.3</t>
+  </si>
+  <si>
+    <t>Task 10 â€“ Monitoring and measurement of product conformity</t>
+  </si>
+  <si>
+    <t>Task 5 â€“ Extent of Outsourcing</t>
+  </si>
+  <si>
+    <t>Task 2 â€“ Selection of production and service process(es)</t>
+  </si>
+  <si>
+    <t>Task 17 â€“ Production record; evidence of compliance of released devices</t>
+  </si>
+  <si>
+    <t>Task 2 â€“ Selection of supplier file to audit</t>
+  </si>
+  <si>
+    <t>Task 2 â€“ – Selection of a completed design and development project</t>
   </si>
 </sst>
 </file>
@@ -2210,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4507918-079E-40CD-8566-2838943DEC94}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2343,22 +2349,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2366,22 +2372,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2389,22 +2395,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2412,22 +2418,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2435,22 +2441,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2458,22 +2464,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2481,1776 +2487,1851 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>83</v>
       </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>88</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>93</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
         <v>97</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
-      </c>
-      <c r="G21" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>105</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>112</v>
-      </c>
-      <c r="G23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
         <v>114</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>116</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>117</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>118</v>
-      </c>
-      <c r="G24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>122</v>
       </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>126</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>127</v>
-      </c>
-      <c r="G26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
         <v>129</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>131</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>132</v>
-      </c>
-      <c r="G27" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>136</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>137</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>138</v>
-      </c>
-      <c r="G28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
         <v>140</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>142</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>143</v>
-      </c>
-      <c r="G29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>147</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>148</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
         <v>151</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>153</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>154</v>
-      </c>
-      <c r="G31" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
         <v>156</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
         <v>157</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>158</v>
       </c>
-      <c r="F32" t="s">
-        <v>159</v>
-      </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
         <v>160</v>
       </c>
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
         <v>162</v>
       </c>
-      <c r="C34" t="s">
-        <v>163</v>
-      </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
         <v>164</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
         <v>165</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
         <v>166</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
         <v>172</v>
       </c>
-      <c r="E37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" t="s">
-        <v>179</v>
-      </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
         <v>212</v>
       </c>
-      <c r="D44" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" t="s">
-        <v>218</v>
-      </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
         <v>236</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F49" t="s">
         <v>237</v>
       </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="G49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s">
         <v>238</v>
       </c>
-      <c r="F48" t="s">
+      <c r="C50" t="s">
         <v>239</v>
       </c>
-      <c r="G48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
         <v>240</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F50" t="s">
         <v>241</v>
       </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="G50" t="s">
         <v>242</v>
       </c>
-      <c r="F49" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
         <v>243</v>
       </c>
-      <c r="G49" t="s">
+      <c r="C51" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D51" t="s">
         <v>245</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
         <v>246</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>247</v>
       </c>
-      <c r="E50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="B52" t="s">
         <v>248</v>
       </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
         <v>249</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D52" t="s">
         <v>250</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E52" t="s">
         <v>251</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F52" t="s">
         <v>252</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G52" t="s">
         <v>253</v>
       </c>
-      <c r="F51" t="s">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
+        <v>447</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s">
         <v>254</v>
       </c>
-      <c r="G51" t="s">
+      <c r="C54" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>249</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D54" t="s">
         <v>256</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E54" t="s">
         <v>257</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F54" t="s">
         <v>258</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G54" t="s">
         <v>259</v>
       </c>
-      <c r="F52" t="s">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" t="s">
         <v>260</v>
       </c>
-      <c r="G52" t="s">
+      <c r="C55" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>249</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D55" t="s">
         <v>262</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E55" t="s">
         <v>263</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F55" t="s">
         <v>264</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G55" t="s">
         <v>265</v>
       </c>
-      <c r="F53" t="s">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
         <v>266</v>
       </c>
-      <c r="G53" t="s">
+      <c r="C56" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
         <v>268</v>
       </c>
-      <c r="C54" t="s">
+      <c r="F56" t="s">
         <v>269</v>
       </c>
-      <c r="D54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G56" t="s">
         <v>270</v>
       </c>
-      <c r="F54" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" t="s">
         <v>271</v>
       </c>
-      <c r="G54" t="s">
+      <c r="C57" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D57" t="s">
         <v>273</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E57" t="s">
         <v>274</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F57" t="s">
         <v>275</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G57" t="s">
         <v>276</v>
       </c>
-      <c r="F55" t="s">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" t="s">
         <v>277</v>
       </c>
-      <c r="G55" t="s">
+      <c r="C58" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D58" t="s">
         <v>279</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E58" t="s">
         <v>280</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F58" t="s">
         <v>281</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G58" t="s">
         <v>282</v>
       </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
         <v>283</v>
       </c>
-      <c r="G56" t="s">
+      <c r="C59" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>249</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D59" t="s">
         <v>285</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E59" t="s">
         <v>286</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F59" t="s">
         <v>287</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G59" t="s">
         <v>288</v>
       </c>
-      <c r="F57" t="s">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" t="s">
         <v>289</v>
       </c>
-      <c r="G57" t="s">
+      <c r="C60" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D60" t="s">
         <v>291</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E60" t="s">
         <v>292</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F60" t="s">
         <v>293</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G60" t="s">
         <v>294</v>
       </c>
-      <c r="F58" t="s">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>445</v>
+      </c>
+      <c r="C61" t="s">
         <v>295</v>
       </c>
-      <c r="G58" t="s">
+      <c r="D61" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>249</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="E61" t="s">
         <v>297</v>
       </c>
-      <c r="C59" t="s">
+      <c r="F61" t="s">
         <v>298</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G61" t="s">
         <v>299</v>
       </c>
-      <c r="E59" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" t="s">
         <v>300</v>
       </c>
-      <c r="F59" t="s">
+      <c r="C62" t="s">
         <v>301</v>
       </c>
-      <c r="G59" t="s">
+      <c r="D62" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>249</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="F62" t="s">
         <v>303</v>
       </c>
-      <c r="C60" t="s">
+      <c r="G62" t="s">
         <v>304</v>
       </c>
-      <c r="D60" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" t="s">
         <v>305</v>
       </c>
-      <c r="F60" t="s">
+      <c r="C63" t="s">
         <v>306</v>
       </c>
-      <c r="G60" t="s">
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="F63" t="s">
         <v>308</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G63" t="s">
         <v>309</v>
       </c>
-      <c r="D61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" t="s">
         <v>310</v>
       </c>
-      <c r="F61" t="s">
+      <c r="C64" t="s">
         <v>311</v>
       </c>
-      <c r="G61" t="s">
+      <c r="D64" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="E64" t="s">
         <v>313</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F64" t="s">
         <v>314</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G64" t="s">
         <v>315</v>
-      </c>
-      <c r="E62" t="s">
-        <v>316</v>
-      </c>
-      <c r="F62" t="s">
-        <v>317</v>
-      </c>
-      <c r="G62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>249</v>
-      </c>
-      <c r="B63" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" t="s">
-        <v>315</v>
-      </c>
-      <c r="E63" t="s">
-        <v>321</v>
-      </c>
-      <c r="F63" t="s">
-        <v>322</v>
-      </c>
-      <c r="G63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>249</v>
-      </c>
-      <c r="B64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C64" t="s">
-        <v>325</v>
-      </c>
-      <c r="D64" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" t="s">
-        <v>326</v>
-      </c>
-      <c r="F64" t="s">
-        <v>327</v>
-      </c>
-      <c r="G64" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C65" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E65" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G65" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G67" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>448</v>
       </c>
       <c r="C68" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="G68" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C69" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F70" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G70" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C71" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G71" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B72" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C72" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F72" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="G72" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E73" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F73" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G73" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F74" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G74" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="E75" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F75" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G75" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B76" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C76" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F76" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G76" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="F77" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G77" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>382</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C79" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D79" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E79" t="s">
-        <v>401</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G79" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D80" t="s">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G80" t="s">
-        <v>409</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>394</v>
+      </c>
+      <c r="C81" t="s">
+        <v>395</v>
+      </c>
+      <c r="D81" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" t="s">
         <v>397</v>
       </c>
-      <c r="B81" t="s">
-        <v>410</v>
-      </c>
-      <c r="C81" t="s">
-        <v>405</v>
-      </c>
-      <c r="D81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" t="s">
-        <v>411</v>
-      </c>
       <c r="F81" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G81" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B82" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C82" t="s">
-        <v>413</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>416</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B83" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C83" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" t="s">
+        <v>402</v>
+      </c>
+      <c r="E83" t="s">
+        <v>403</v>
+      </c>
+      <c r="F83" t="s">
+        <v>404</v>
+      </c>
+      <c r="G83" t="s">
         <v>405</v>
-      </c>
-      <c r="D83" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" t="s">
-        <v>418</v>
-      </c>
-      <c r="F83" t="s">
-        <v>408</v>
-      </c>
-      <c r="G83" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F84" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G84" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B85" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F85" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G85" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C86" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F86" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="G86" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B87" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D87" t="s">
-        <v>435</v>
+        <v>46</v>
       </c>
       <c r="E87" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="F87" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="G87" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B88" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C88" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="F88" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B89" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B90" t="s">
+        <v>429</v>
+      </c>
+      <c r="C90" t="s">
+        <v>430</v>
+      </c>
+      <c r="D90" t="s">
+        <v>431</v>
+      </c>
+      <c r="E90" t="s">
+        <v>432</v>
+      </c>
+      <c r="F90" t="s">
+        <v>433</v>
+      </c>
+      <c r="G90" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C91" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>437</v>
+      </c>
+      <c r="F91" t="s">
+        <v>438</v>
+      </c>
+      <c r="G91" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>440</v>
+      </c>
+      <c r="C92" t="s">
+        <v>441</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>442</v>
+      </c>
+      <c r="F92" t="s">
+        <v>443</v>
+      </c>
+      <c r="G92" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
